--- a/data1.xlsx
+++ b/data1.xlsx
@@ -20,42 +20,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="240">
   <si>
     <t xml:space="preserve">phrase</t>
   </si>
   <si>
-    <t xml:space="preserve">topics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Связаться с кредитным специалистом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оператор (Operator) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">_General Оператор (_General_Operator) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Связаться с кредитным отделом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Без вопроса (_General_Whithout_Question) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зарегистрировать карту/авторизовать </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вместо консультации на оператора </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Состояние карты </t>
-  </si>
-  <si>
-    <t xml:space="preserve">УВ Карта (UV_Card) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карта (_Local_Card) </t>
+    <t xml:space="preserve">topics1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topics2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topics3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topics4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">он не выдал деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не выдал деньги (_Local_Didnt_Give_Money)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">банкомат не выдал деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Банкоматы (_Local_ATM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне нужен специалист по брокерским счетам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брокерский счет (_Local_Brokerage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Инвестиции (_General_Investing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найдена карта клиента 3м лицом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разблокировать карту (_General_UnBlock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Украли / Потерял телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Справка для гос служащего с наличием брокеских счетов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Справка (_Local_Reference)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Справка (_General_Reference)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не типовая справка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо консультации на оператора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хамство оператора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сотрудник банка (_Local_Bank_Employee)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка  сотрудника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Претензия/Заявление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Статус претензии (_General_ClaimStat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жалоба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Заявление (UV_Statement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не проходит оплата по карте / не проходит операция по карте / карта не проходит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта не работает (_General_Cardnotworking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Несанкционированное списание\снятие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мошенничество_UNI (_General_Fraud_UNI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне не отвечают в чате / Долго отвечают в чате </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Без вопроса (_General_Whithout_Question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибочно перевели на банк </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отменить перевод (_Local_Cancel_Transfer_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я отправила перевод со сбербанка на свой счет в банке он нашел не тому человеку что мне делать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какую сумму я могу снять без комиссии в банкоматах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимиты (_Local_Limits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Лимит (UV_Limit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какую сумму я могу снять без комиссии в банкоматах с дебетовой карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лимит карты (_General_CARD_LIMIT_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дебетовая карта (_Local_Debit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Купить билеты за мили</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличными оплатить можно без комиссии в офис банке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочу узнать комиссию при оплате qr коду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Платеж по QR (_General_Payment_QR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по поводу кэшбек по тысячи рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кэшбэк (_Local_Cashback)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отменить комиссия за снятие наличных по кредитной карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комиссия (_Local_Commission)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комиссия за ведение валютного счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить карту в приложение/ привязать карту в приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить карту в телефон </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бесконтактная оплата (_General_Pay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связаться с кредитным специалистом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оператор (Operator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Оператор (_General_Operator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связаться с кредитным отделом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарегистрировать карту/авторизовать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Состояние карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> УВ Карта (UV_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карта (_Local_Card)</t>
   </si>
   <si>
     <t xml:space="preserve">Состояние счета </t>
@@ -64,16 +214,533 @@
     <t xml:space="preserve">УВ Счет (UV_Account) </t>
   </si>
   <si>
-    <t xml:space="preserve">График платежей по кредиту </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Условия (_Local_Conditions) </t>
+    <t xml:space="preserve">График платежей по кредиту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия (_Local_Conditions)</t>
   </si>
   <si>
     <t xml:space="preserve">Какой номер телефона у меня привязан </t>
   </si>
   <si>
-    <t xml:space="preserve">Запрос кодового слова (_General_Codeword_request) </t>
+    <t xml:space="preserve">Запрос кодового слова (_General_Codeword_request)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не работает приложение не могу закрыть счет счет не закрывается нужен оператор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Закрытие счета (_General_Account_Off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отказаться (_Local_Refuse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блокировка мобайла/-Онлайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Разблокировать карту (_General_UnBlock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где забрать карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Готовность карт (_General_TAKE_CARD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Готовность карт (CardReadiness)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где получить  карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Дебетовая карта (UV_Debitcard)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказать зп карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить зп карту\где зп карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привязать карту к телефону\в телефон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу зайти в приложение заблокирована карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активировать детскую карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация (_General_Activation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация (_Local_Activate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установить пин код на детскую карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с приложением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМ Подключение (_General_AM_Connection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не работает  мобайл/приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карту перевыпустить размагнитилась</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снять деньги в офисе, кассе, у операциониста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказ денег УКД (_General_ZAKAZ_DENGI_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказ денег УКД (_Local_Zakaz_Dengi_UKD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отказ от рекламных звонков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реклама (_Local_Advertising)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не знаю номер карты/счета для входа в приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Временный пароль (_Local_Temp_Password)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне звонили, оформили кредит (действие совершено)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не знаю сумму кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит наличными (Про платеж) (_Local_DIS_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Партнерская программа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курьер не отдает карту </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курьерская доставка (_General_Express_Delivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курьерская доставка (CourierDelivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сотрудник / менеджер не отдает карту </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказать стикер к карте кредитной или кредитный стикер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказать  стикер, Заказать стикер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платежные Стикеры (_General_Payment_Stickers)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказал стикер </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Карта (UV_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закрыть все счета </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закрыть последний счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закрытие счета (_General_Account_Off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне перевели на заблокированный счет/карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перевела на заблокированный счет/карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронная подпись</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> тревел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочу связь с оператором уточнить информацию по поводу того что пополнила кредитную карту деньги получается / 
+Хотела бы узнать поступил ли у меня платеж на кредитную карту последние семьсот рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредитная картаКредитка (_Local_Credit_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус платежа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выписка (_General_BankStatement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Движение денежных средств (_Local_Transactions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Внесение платежа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Платеж (UV_Payment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не  могу получить выписку </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу получить квитанцию </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квитанция (_General_Cheque)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу получить справку </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Справка (_General_Reference)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу обновить данные паспорта </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Замена паспорта (_General_PassportChange)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу активировать карту  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу заказать карту </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу поменять номер в банке </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смена номера телефона (_General_Change_phone)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Привязать номер (_Local_Bind_Number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Актуализировать номер телефона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снятие с карты в банкомате стороннего банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Снятие наличных (UV_CashWithdrawal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снятие наличных (_Local_Cash_Withdrawal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне нужнА карта </t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Получение карты (UV_TakeCard)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне нужнО карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не получиЛ карту / Не получилИ карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с получением карты / Не могу получить карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как мне заказать карту через ссылку по пригласи друга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Делали заявку на карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужно кредит / Не нужен кредит / Не нужнО кредит / Мне не надо кредит / Хочу кредит / Нужен кредит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Кредит (UV_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кредит (_Local_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Другой кредит (_Local_Other_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервис заправки / Заправки / Не прошла оплата на заправке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кэшбэк заправка</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Афиша / купить билет в кино / купить билет в театр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервис  Тревел / купить авиабилет / купить жд билет / оплатить отель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне не могут перевести из другого банка / мне не могут перевести</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема с переводом (_Local_Cant_Transfer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопросы по  форексу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопросы по  капиталу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупка драгоценных металлов в слитках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочу перевести на счету доверительного управления на свой текущий счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочу снять деньги с инвест копилки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Почему не нужно оплатить ежемесячный платёж </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочу заблокировать (без уточнения чего-либо)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потерял карту (_Local_Lost_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уменьшить лимит </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если клиент называет номер телефона и спрашивает, к нему ли привязана карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ставка по кредиту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я хочу лимит повысить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найти старый счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличие чипов детской карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По поводу кредитной карты снять собственные средства остатки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поменяли номер которого у меня нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связаться с оператором узнать что за счет мне открыли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Снятие наличных с белорусской карты мир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можно ли выбрать офис куда доставить карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказывала кредитную карту пришел отказ банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне нужно открыть личный кабинет но у меня нет карты у меня нет счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу войти в приложение так как номер сменился заблокирован</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подвердить платеж, по движению средств, по истории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По списанию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Странные операции (UV_Strange_Operation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оформил кредит деньги не поступили соедините со специалистом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Когда поступят деньги (_Local_Get_Money)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу снять деньги с кк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не могу перевести с кк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько карт можно иметь на одного человека</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трудности с платежом кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Способы погашения_пополнения (_General_Repay_credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О способах пополнения (_Local_Repay_Credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По списанию процентов (без уточнения продукта)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">случайно перевела не в тот банк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить одноразовый код доступа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подобрать адрес доставки карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Такие фразы как "блин"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">если с матами,тогда на Невозможно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ограничение/приостановление по счетам , по карте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо консультации оператора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Положить деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Способы погашения_пополнения (_General_Repay_credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хочет заказать карту и уточняет что ему нет 18 лет, но не говорит какую именно карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Заказ новой карты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новый продукт (_Local_Open)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восстановить доступ к приложению/восстановить вход в приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восстановить приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скачать/обновить (_Local_Download)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Премиальный клиент я или нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Трансфер (_General_Transfer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не открывается ссылка, которую вы направили / не открывается ссылка (без всякого уточнения)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо консультации / Без вопроса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позвонить, дозвониться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Приветствие (_General_Hello)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Где деньги / где мои деньги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не зачислил деньги на карту (_Local_Didnt_Money_On_Card)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дошел (платеж) (_Local_Not_Received)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус (_Local_Status)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связаться по добавочному номеру/ ввести добавочный номер/ добавочный номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не нужна мне комиссия мне нужны наличные деньги у меня Оформлен кредит в вашем банке пятьсот три/здравствуйте я вот Сегодня заказала кредит наличными мне одобрили мне нужно Снять наличные как это сделать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не зайти в приложение банка после обновления данных</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начислили проценты почему</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ускорить процесс получения кредита</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> карта одноразовый код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лизинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить доступ в приложение/доступ к личному кабинету</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет доступа (_Local_No_Access)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мой вопрос по акции рекомендуется инвестиции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акция (_Local_Action)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обслуживание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доступ в личный кабинет ребенка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заблокирован личный кабинет поэтому я хочу получить ответ на свое обращение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">доступ к карте/счету</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВ Карта/УВ Счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">списывают деньги с другого счета\ пытаетесь долги списали с другого счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cменить контактный номер на карте ребенка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">как оплатить а деньги (и подобные)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">отменить комиссию/вернуть комиссию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_General Без вопроса (_General_Whithout_Question)</t>
   </si>
 </sst>
 </file>
@@ -83,7 +750,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,27 +777,67 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color theme="0" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.25"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.25"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -159,13 +866,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -177,6 +912,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFF2CFEE"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -357,85 +1152,1776 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="8.63"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="2" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="157.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="206.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="169.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="399.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="181.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="181.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="399.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="109.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="133.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="85.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B106 C120:D120 D124" type="list">
+      <formula1>'x:\отчетность цпк\разметка чат-бот\отчет по разметке\разметка войс-бот\физ лица\разметка локалов\[data_locals_smoke_test_1.xlsx]лист1'!#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -894,37 +894,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1179,2021 +1183,2029 @@
   <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="8.63"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="184.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="B42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="B44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="B53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="B56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="B59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="B61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" customFormat="false" ht="379.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="B71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="B78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="B82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="B84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="B85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="B88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="B89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="B90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="B91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="B93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+      <c r="B99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="B100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="B101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="B103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="B104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+      <c r="B105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+      <c r="B106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="B112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+      <c r="B114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+      <c r="C117" s="4"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" customFormat="false" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" customFormat="false" ht="345.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="s">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="s">
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="D146" s="3"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="s">
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="s">
+      <c r="B150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+      <c r="C151" s="4"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="s">
+      <c r="B152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="s">
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="s">
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3" t="s">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-    </row>
-    <row r="157" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3" t="s">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="s">
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="s">
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
